--- a/src/test/resources/dataFiles/test_file_A.xlsx
+++ b/src/test/resources/dataFiles/test_file_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VictorHugo/INFOS/Workspace/SeleniumTemplates/templates/selenium-junit4-framework/src/test/resources/defaultData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franklin Perez\Desktop\FrameworkSelenium\DemoSelenium\src\test\resources\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD676E-7D9B-5044-840E-8BEB70FFDFA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32FB550-3C98-4428-A4CD-0C122494AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25440" windowHeight="15360" xr2:uid="{8097436B-EBD4-C541-BA4F-20B61ED1BCB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8097436B-EBD4-C541-BA4F-20B61ED1BCB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Test Case</t>
   </si>
@@ -45,37 +45,52 @@
     <t>Descripcion del escenario 100</t>
   </si>
   <si>
-    <t>batman</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
     <t>Descripcion del escenario 101</t>
   </si>
   <si>
-    <t>superman</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
     <t>Descripcion del escenario 102</t>
   </si>
   <si>
-    <t>zord</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
     <t>Descripcion del escenario 103</t>
   </si>
   <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>blouses</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>mens</t>
+  </si>
+  <si>
+    <t>womens</t>
+  </si>
+  <si>
+    <t>sportswear</t>
+  </si>
+  <si>
+    <t>jewelry</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,18 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD041E0-0832-0D4B-94AD-640A10C9DC7D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,66 +469,82 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>